--- a/saved-xlsx/Certificat.xlsx
+++ b/saved-xlsx/Certificat.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Dib Amel</t>
+          <t>Harkat Khaoula</t>
         </is>
       </c>
       <c r="L8" s="5" t="n"/>
